--- a/대시보드.xlsx
+++ b/대시보드.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-07\Desktop\school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B2D532-5C42-41F3-96D4-2327E8158B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB32888-CF67-4C31-A5D7-3B978F49B21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="2115" windowWidth="15240" windowHeight="11385" xr2:uid="{EE9B4154-1318-4185-BDF3-AABFBCEFD27A}"/>
+    <workbookView xWindow="6840" yWindow="2160" windowWidth="15240" windowHeight="11385" xr2:uid="{EE9B4154-1318-4185-BDF3-AABFBCEFD27A}"/>
   </bookViews>
   <sheets>
     <sheet name="고객별" sheetId="1" r:id="rId1"/>
-    <sheet name="사업자별" sheetId="4" r:id="rId2"/>
+    <sheet name="dummyData 생성기" sheetId="5" r:id="rId2"/>
+    <sheet name="사업자별" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
     <author>tj-bu-702-07</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{FD3A8365-925F-4F3E-A591-A4F34A920203}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{FD3A8365-925F-4F3E-A591-A4F34A920203}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,89 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7130A52A-F289-4165-864F-49F3AF3AE624}">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{7130A52A-F289-4165-864F-49F3AF3AE624}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>군</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tj-bu-702-07</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D7C4EE66-035C-48B3-989C-6F84D0B46431}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{6A50814C-E569-4587-B48E-B740CA8FC4D1}">
       <text>
         <r>
           <rPr>
@@ -117,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>service_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chartList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +364,379 @@
   <si>
     <t>times_hhmm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 대시보드 기능 관련 추가 sql 만든이: 오규원 추가일자:0905--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- - count --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;select id="count_email"&gt;</t>
+  </si>
+  <si>
+    <t>select count(user_email) from user_reservation</t>
+  </si>
+  <si>
+    <t>&lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>&lt;select id="countVendorName"&gt;</t>
+  </si>
+  <si>
+    <t>select count(vendor_name) from user_reservation where vendor_name={vendor_name}</t>
+  </si>
+  <si>
+    <t>&lt;select id="countBasicAddress"&gt;</t>
+  </si>
+  <si>
+    <t>select count(basic_address) from user_reservation where basic_address={basic_address}</t>
+  </si>
+  <si>
+    <t>&lt;select id="countDetailAddress"&gt;</t>
+  </si>
+  <si>
+    <t>select count(detail_address) from user_reservation where detail_address={detail_address}</t>
+  </si>
+  <si>
+    <t>&lt;select id="countServiceName"&gt;</t>
+  </si>
+  <si>
+    <t>select count(service_name) from user_reservation where service_name={service_name}</t>
+  </si>
+  <si>
+    <t>&lt;select id="countTimeshhmm"&gt;</t>
+  </si>
+  <si>
+    <t>select count(times_hhmm) from user_reservation where times_hhmm={times_hhmm}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;!-- - sum --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;select id="sumServicePrice"&gt;</t>
+  </si>
+  <si>
+    <t>3.dao 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//대시보드 관련 기능 만든이:오규원 추가일자:0905</t>
+  </si>
+  <si>
+    <t>public int countEmail() throws Exception;</t>
+  </si>
+  <si>
+    <t>public int countVendorName(String vendor_name) throws Exception;</t>
+  </si>
+  <si>
+    <t>public int countBasicAddress(String basic_address) throws Exception;</t>
+  </si>
+  <si>
+    <t>public int countDetailAddress(String detail_address) throws Exception;</t>
+  </si>
+  <si>
+    <t>public int countServiceName(String service_name) throws Exception;</t>
+  </si>
+  <si>
+    <t>public int countTimeshhmm(String times_hhmm ) throws Exception;</t>
+  </si>
+  <si>
+    <t>public int sumServicePrice(String serviceName) throws Exception;</t>
+  </si>
+  <si>
+    <t>4.service 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.serviceImpl 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Override</t>
+  </si>
+  <si>
+    <t>public int countEmail() throws Exception {</t>
+  </si>
+  <si>
+    <t>UserReservationDao dao = sqlSession.getMapper(UserReservationDao.class);</t>
+  </si>
+  <si>
+    <t>return dao.countEmail();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public int countVendorName(String vendor_name) throws Exception {</t>
+  </si>
+  <si>
+    <t>return dao.countVendorName(vendor_name);</t>
+  </si>
+  <si>
+    <t>public int countBasicAddress(String basic_address) throws Exception {</t>
+  </si>
+  <si>
+    <t>return dao.countBasicAddress(basic_address);</t>
+  </si>
+  <si>
+    <t>public int countDetailAddress(String detail_address) throws Exception {</t>
+  </si>
+  <si>
+    <t>return dao.countDetailAddress(detail_address);</t>
+  </si>
+  <si>
+    <t>public int countServiceName(String service_name) throws Exception {</t>
+  </si>
+  <si>
+    <t>return dao.countServiceName(service_name);</t>
+  </si>
+  <si>
+    <t>public int countTimeshhmm(String times_hhmm) throws Exception {</t>
+  </si>
+  <si>
+    <t>return dao.countTimeshhmm(times_hhmm);</t>
+  </si>
+  <si>
+    <t>public int sumServicePrice(String serviceName) throws Exception {</t>
+  </si>
+  <si>
+    <t>return dao.sumServicePrice(serviceName);</t>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_use_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 화면 구현 manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="countBusinessType"&gt;</t>
+  </si>
+  <si>
+    <t>select count(business_type) from vendor where business_type=${business_type}</t>
+  </si>
+  <si>
+    <t>public int countBusinessType(String business_type)throws Exception;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="form" uri="http://www.springframework.org/tags/form" %&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="sec" uri="http://www.springframework.org/security/tags"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="c" uri="http://java.sun.com/jsp/jstl/core" %&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ page session="true" %&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ include file="../include/header.jsp"%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> google.charts.load('current', {'packages':['bar']});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      function drawStuff() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var data = new google.visualization.arrayToDataTable([</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ['Move', 'Percentage'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ["King's pawn (e4)", 44],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ["Queen's pawn (d4)", 31],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ["Knight to King 3 (Nf3)", 12],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ["Queen's bishop pawn (c4)", 10],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ['Other', 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var options = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          width: 800,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          legend: { position: 'none' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          chart: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            title: 'Chess opening moves',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            subtitle: 'popularity by percentage' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          axes: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            x: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              0: { side: 'bottom', label: 'White to move'} // Top x-axis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          bar: { groupWidth: "90%" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var chart = new google.charts.Bar(document.getElementById('top_x_div'));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Convert the Classic options to Material options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        chart.draw(data, google.charts.Bar.convertOptions(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div id="top_x_div" style="width: 800px; height: 600px;"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;%@ include file="../include/footer.jsp"%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;script type="text/javascript" src="https://www.gstatic.com/charts/loader.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google.charts.setOnLoadCallback(drawStuff);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_service_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select vendor_name,sum(total_service_price)from user_reservation group by vendor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김덕배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤어모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평구 경원대로 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 컷트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>) values (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_reservation (user_email,user_name,vendor_name,basic_address,detail_address,zipcode,business_regi_num,service_name,</t>
+  </si>
+  <si>
+    <t>times_hhmm,total_service_price,reservation_use_date)</t>
+  </si>
+  <si>
+    <t>values ('user1','김덕배','헤어','헤어모드','인천광역시','부평구 경원대로 24','22085','11-12358','남자 컷트','18:00','18000','2024-09-03);</t>
   </si>
 </sst>
 </file>
@@ -335,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +799,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,9 +881,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -431,12 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -448,6 +899,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,6 +940,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>993321</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C32462-B697-4211-AB2C-EA2C0040FB61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6599464" y="421821"/>
+          <a:ext cx="6783036" cy="3360964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>997340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B793BD58-E190-4680-9CC6-E29FD7FD90E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3633107" y="1047750"/>
+          <a:ext cx="2970376" cy="2313214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>650071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E859B36A-A99F-47FB-915D-54B3BCEBE1B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1156608"/>
+          <a:ext cx="3562000" cy="1850571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>329524</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>101392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AE7EAB-68C5-42F9-9B16-36B8952DB9F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6177643" y="29336999"/>
+          <a:ext cx="9038095" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3633A422-E370-45FD-845D-42FA56AAD19A}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="B19:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,197 +1434,1060 @@
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="3" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9661505-C1A3-41B7-823B-CCA0788E1A5F}">
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="5">
+        <v>22085</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="9">
+        <v>18000</v>
+      </c>
+      <c r="M4" s="17">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="9">
+        <v>18000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -976,7 +2495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D480C9-5977-4BC5-8EBE-B735B15FCDBC}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/대시보드.xlsx
+++ b/대시보드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-07\Desktop\school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB32888-CF67-4C31-A5D7-3B978F49B21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE5853A-84B2-4A5D-9A09-4747C6C04323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2160" windowWidth="15240" windowHeight="11385" xr2:uid="{EE9B4154-1318-4185-BDF3-AABFBCEFD27A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE9B4154-1318-4185-BDF3-AABFBCEFD27A}"/>
   </bookViews>
   <sheets>
     <sheet name="고객별" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tj-bu-702-07</author>
   </authors>
   <commentList>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{FD3A8365-925F-4F3E-A591-A4F34A920203}">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{FD3A8365-925F-4F3E-A591-A4F34A920203}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{7130A52A-F289-4165-864F-49F3AF3AE624}">
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{7130A52A-F289-4165-864F-49F3AF3AE624}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,13 +730,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_reservation (user_email,user_name,vendor_name,basic_address,detail_address,zipcode,business_regi_num,service_name,</t>
-  </si>
-  <si>
-    <t>times_hhmm,total_service_price,reservation_use_date)</t>
-  </si>
-  <si>
-    <t>values ('user1','김덕배','헤어','헤어모드','인천광역시','부평구 경원대로 24','22085','11-12358','남자 컷트','18:00','18000','2024-09-03);</t>
+    <t>total_service_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdorDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -870,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,15 +912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,6 +926,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,16 +969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>993321</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>537357</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>646214</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,7 +1001,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6599464" y="421821"/>
+          <a:off x="10790464" y="571500"/>
           <a:ext cx="6783036" cy="3360964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -990,16 +1013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>997340</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385019</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1022,7 +1045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3633107" y="1047750"/>
+          <a:off x="7456714" y="1034143"/>
           <a:ext cx="2970376" cy="2313214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1034,23 +1057,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>650071</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>329524</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>101391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E859B36A-A99F-47FB-915D-54B3BCEBE1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AE7EAB-68C5-42F9-9B16-36B8952DB9F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,8 +1089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1156608"/>
-          <a:ext cx="3562000" cy="1850571"/>
+          <a:off x="6177643" y="29336999"/>
+          <a:ext cx="9038095" cy="5285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,23 +1101,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>329524</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>101392</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
+        <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AE7EAB-68C5-42F9-9B16-36B8952DB9F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340BFA05-D117-4DB1-B88E-899CA5DCA475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1110,8 +1133,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6177643" y="29336999"/>
-          <a:ext cx="9038095" cy="5285714"/>
+          <a:off x="231322" y="0"/>
+          <a:ext cx="3973286" cy="5781725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36346</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C595B8B4-02F5-4A67-B0C4-F9E5C8BEB0AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4218215" y="1170215"/>
+          <a:ext cx="3152381" cy="1323810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1420,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3633A422-E370-45FD-845D-42FA56AAD19A}">
-  <dimension ref="B19:N171"/>
+  <dimension ref="B30:N183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T122" sqref="T122"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1437,297 +1504,272 @@
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N33" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="34" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="9" t="s">
+      <c r="K34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N34" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E38" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="4" t="s">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="4" t="s">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
@@ -1737,12 +1779,12 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
@@ -1752,42 +1794,42 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="15" t="s">
-        <v>91</v>
+      <c r="B59" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
@@ -1797,72 +1839,72 @@
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
-        <v>12</v>
+      <c r="B65" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>64</v>
+      <c r="B71" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="15" t="s">
-        <v>91</v>
+      <c r="B74" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>67</v>
+      <c r="B77" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
@@ -1880,89 +1922,99 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
-        <v>75</v>
+      <c r="B97" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
@@ -1972,7 +2024,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
@@ -1982,7 +2034,7 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
@@ -1997,7 +2049,7 @@
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
@@ -2007,7 +2059,7 @@
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
@@ -2022,7 +2074,7 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
@@ -2032,7 +2084,7 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
@@ -2047,7 +2099,7 @@
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
@@ -2057,7 +2109,7 @@
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.3">
@@ -2072,7 +2124,7 @@
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
@@ -2082,7 +2134,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.3">
@@ -2090,213 +2142,263 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>110</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>123</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9661505-C1A3-41B7-823B-CCA0788E1A5F}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:Q17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2391,7 +2493,7 @@
       <c r="L3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2423,13 +2525,13 @@
       <c r="J4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>0.75</v>
       </c>
       <c r="L4" s="9">
         <v>18000</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>45538</v>
       </c>
     </row>
@@ -2449,7 +2551,7 @@
       <c r="F7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>89</v>
       </c>
       <c r="H7" t="s">
@@ -2472,19 +2574,6 @@
       </c>
       <c r="N7" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/대시보드.xlsx
+++ b/대시보드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-702-07\Desktop\school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE5853A-84B2-4A5D-9A09-4747C6C04323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E212152-39C4-4BFD-B3FD-1D0C2A58D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE9B4154-1318-4185-BDF3-AABFBCEFD27A}"/>
+    <workbookView xWindow="450" yWindow="2010" windowWidth="15240" windowHeight="11385" xr2:uid="{EE9B4154-1318-4185-BDF3-AABFBCEFD27A}"/>
   </bookViews>
   <sheets>
     <sheet name="고객별" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -747,6 +747,10 @@
   </si>
   <si>
     <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 실제 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,15 +931,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,6 +941,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1487,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3633A422-E370-45FD-845D-42FA56AAD19A}">
-  <dimension ref="B30:N183"/>
+  <dimension ref="B30:N184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:N35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1616,39 +1620,39 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="18" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="N35" s="20"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -1665,19 +1669,19 @@
       <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -1688,22 +1692,22 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -1712,11 +1716,11 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
@@ -2390,6 +2394,11 @@
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
